--- a/Support/Quality Assurance/CHKL_ITAUDT.xlsx
+++ b/Support/Quality Assurance/CHKL_ITAUDT.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="15480" windowHeight="8445"/>
@@ -68,10 +68,10 @@
     <t>Are the Backups made regularly as per defined schedule?</t>
   </si>
   <si>
-    <t>Template Version - 3</t>
-  </si>
-  <si>
     <t>Are All the Backup Items are there in the Plan?</t>
+  </si>
+  <si>
+    <t>Template Version - 4</t>
   </si>
 </sst>
 </file>
@@ -196,7 +196,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -218,6 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -665,7 +666,7 @@
     </row>
     <row r="4" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -682,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,15 +696,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -745,7 +746,7 @@
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -755,7 +756,7 @@
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -765,7 +766,7 @@
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -775,7 +776,7 @@
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -785,7 +786,7 @@
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -795,7 +796,7 @@
       <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -805,7 +806,7 @@
       <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -813,9 +814,9 @@
         <v>8</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="C15" s="9"/>
       <c r="D15" s="6"/>
     </row>
   </sheetData>
@@ -824,7 +825,7 @@
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C15">
-      <formula1>"Conformance,Major Non-Conformance,Minor Non-Conformance,Observation, NA"</formula1>
+      <formula1>"Conformance,Functional Non-Conformance,Non Functional Non-Conformance,Observation, NA"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
